--- a/FeatureScenarios.xlsx
+++ b/FeatureScenarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Feature Name</t>
   </si>
@@ -23,44 +23,19 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>Validate Place API</t>
+    <t>Another feature two file</t>
   </si>
   <si>
-    <t>Verify adding a new place</t>
+    <t>Verify adding a new place ABC</t>
   </si>
   <si>
-    <t>User builds an add place payload with "&lt;name&gt;", "&lt;language&gt;", "&lt;address&gt;"
-User "post" http request to "addPlaceAPI"
-User gets a http success code as 200
-User gets a "status" in response body as "OK"
-User gets a "scope" in response body as "APP"
-User verifies "&lt;name&gt;" using "getPlaceAPI"</t>
+    <t>User builds an add place payload with "ABC", "Germany", "Some Address"</t>
   </si>
   <si>
-    <t>Verify delete place functionality</t>
+    <t>Verify adding a new place DEF</t>
   </si>
   <si>
-    <t>User builds delete payload
-User "post" http request to "deletePlaceAPI"
-User gets a http success code as 200
-User gets a "status" in response body as "OK"</t>
-  </si>
-  <si>
-    <t>Verify graphQL location details</t>
-  </si>
-  <si>
-    <t>User builds location payload
-User posts the location request</t>
-  </si>
-  <si>
-    <t>Verify graphQL create location</t>
-  </si>
-  <si>
-    <t>User builds create location payload
-User posts the create location request</t>
-  </si>
-  <si>
-    <t>Another feature file</t>
+    <t>User builds an add place payload with "DEF", "India", "Another Address"</t>
   </si>
 </sst>
 </file>
@@ -97,26 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -129,14 +86,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.08984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.03515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.0625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -173,72 +130,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
